--- a/simulations/cleaned_inclusion_exclusion/Sep_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Sep_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -716,7 +716,7 @@
         <v>0.275</v>
       </c>
       <c r="D3">
-        <v>0.55</v>
+        <v>0.525</v>
       </c>
       <c r="E3">
         <v>0.725</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.1365313653136531</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="I3">
-        <v>0.271969696969697</v>
+        <v>0.2798701298701299</v>
       </c>
       <c r="J3">
         <v>0.175</v>
       </c>
       <c r="K3">
-        <v>83.325</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -755,31 +755,31 @@
         <v>36</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="U3">
         <v>141</v>
       </c>
       <c r="V3">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W3">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="X3">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Y3">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Z3">
         <v>90</v>
@@ -800,16 +800,16 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.9913419999999999</v>
+        <v>0.9740259999999999</v>
       </c>
       <c r="AG3">
-        <v>0.969697</v>
+        <v>0.952381</v>
       </c>
       <c r="AH3">
-        <v>0.831169</v>
+        <v>0.809524</v>
       </c>
       <c r="AI3">
-        <v>0.536797</v>
+        <v>0.480519</v>
       </c>
       <c r="AJ3">
         <v>0.38961</v>
